--- a/xlsx/總統制_intext.xlsx
+++ b/xlsx/總統制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>议会制</t>
   </si>
   <si>
-    <t>政策_政策_行政_總統制</t>
+    <t>体育运动_体育运动_南非_總統制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
